--- a/化学生命工学実験4/無機物理化学実験/6/2023鳥本研データ_SnO.xlsx
+++ b/化学生命工学実験4/無機物理化学実験/6/2023鳥本研データ_SnO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutteee/univ/latex/化学生命工学実験4/無機物理化学実験/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847D0ED-591F-0245-B04D-68AE43BB633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC13058F-504C-AC4C-BFC9-E1295C623984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{3985D130-0D9C-44F3-9740-4D68410E494D}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{3985D130-0D9C-44F3-9740-4D68410E494D}"/>
   </bookViews>
   <sheets>
     <sheet name="J-V特性（エオシンY）" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,469 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1392239004984295"/>
-          <c:y val="9.9608511523604337E-2"/>
+          <c:x val="0.14923490401616271"/>
+          <c:y val="9.9608536101398457E-2"/>
           <c:w val="0.81435414253008931"/>
+          <c:h val="0.75263879871638917"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="94000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0417568081291979E-2"/>
+                  <c:y val="-0.5256483161499681"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'J-V特性（エオシンY）'!$G$7:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'J-V特性（エオシンY）'!$F$7:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0750000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9250000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F8D-4CCD-AE0C-580895A68C12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="544759183"/>
+        <c:axId val="378955983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="544759183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP">
+                    <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                  </a:rPr>
+                  <a:t>電圧</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[mV]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378955983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="378955983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP">
+                    <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                  </a:rPr>
+                  <a:t>電流密度 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[mA cm-2 ]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.9759246223589965E-3"/>
+              <c:y val="0.23216111915886706"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544759183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17778090035585326"/>
+          <c:y val="0.1084666121027123"/>
+          <c:w val="0.78371811402180958"/>
           <c:h val="0.75263879871638917"/>
         </c:manualLayout>
       </c:layout>
@@ -389,14 +849,11 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
@@ -408,66 +865,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'J-V特性（エオシンY）'!$G$7:$G$14</c:f>
+              <c:f>'J-V特性（メチレンブルー）'!$H$7:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'J-V特性（エオシンY）'!$F$7:$F$14</c:f>
+              <c:f>'J-V特性（メチレンブルー）'!$G$7:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.34250000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42249999999999999</c:v>
+                  <c:v>0.24249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.19750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16225000000000001</c:v>
+                  <c:v>0.11625000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0750000000000002E-2</c:v>
+                  <c:v>6.7500000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.9250000000000002E-2</c:v>
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.7250000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,7 +944,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3F8D-4CCD-AE0C-580895A68C12}"/>
+              <c16:uniqueId val="{00000002-2AF9-4299-990B-D17D5B067592}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -504,27 +973,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP"/>
                   <a:t>電圧</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mV}</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[mV]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -541,14 +1007,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -576,14 +1039,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -609,27 +1069,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP"/>
                   <a:t>電流密度 </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>[mA cm-2 ]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -637,8 +1094,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.9758575577071524E-3"/>
-              <c:y val="0.36905087819002558"/>
+              <c:x val="5.4228325857238139E-3"/>
+              <c:y val="0.2118396984807531"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -654,14 +1111,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -689,14 +1143,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -742,7 +1193,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -755,7 +1211,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -776,9 +1232,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13649301132738906"/>
+          <c:x val="0.18617907887259749"/>
           <c:y val="0.10384263044715313"/>
-          <c:w val="0.81435414253008931"/>
+          <c:w val="0.76466817485165106"/>
           <c:h val="0.75263879871638917"/>
         </c:manualLayout>
       </c:layout>
@@ -828,9 +1284,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:alpha val="94000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -842,8 +1296,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.2502405949256343E-2"/>
-                  <c:y val="-0.57369750656167984"/>
+                  <c:x val="6.9133306702551786E-2"/>
+                  <c:y val="-0.3850001569832619"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -859,14 +1313,11 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
@@ -878,10 +1329,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'J-V特性（メチレンブルー）'!$H$7:$H$16</c:f>
+              <c:f>'J-V特性（色素なし）'!$H$8:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -896,60 +1347,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.115</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'J-V特性（メチレンブルー）'!$G$7:$G$16</c:f>
+              <c:f>'J-V特性（色素なし）'!$G$8:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.34250000000000003</c:v>
+                  <c:v>8.5250000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24249999999999999</c:v>
+                  <c:v>5.8749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19750000000000001</c:v>
+                  <c:v>3.6249999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11625000000000001</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7500000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-7.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.7250000000000002E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +1378,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AF9-4299-990B-D17D5B067592}"/>
+              <c16:uniqueId val="{00000003-8877-41F0-87EE-E79D4EE51544}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -986,27 +1407,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP"/>
                   <a:t>電圧</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mV}</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[mV]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1023,14 +1441,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1058,14 +1473,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1091,27 +1503,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP"/>
                   <a:t>電流密度 </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>[mA cm-2 ]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1119,8 +1528,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.9758575577071524E-3"/>
-              <c:y val="0.36905087819002558"/>
+              <c:x val="1.0460074665915508E-2"/>
+              <c:y val="0.22571127318482623"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1136,14 +1545,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1171,14 +1577,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1224,457 +1627,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13649301132738906"/>
-          <c:y val="0.10384263044715313"/>
-          <c:w val="0.81435414253008931"/>
-          <c:h val="0.75263879871638917"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.9133306702551786E-2"/>
-                  <c:y val="-0.3850001569832619"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'J-V特性（色素なし）'!$H$8:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'J-V特性（色素なし）'!$G$8:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.5250000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8749999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6249999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8877-41F0-87EE-E79D4EE51544}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="544759183"/>
-        <c:axId val="378955983"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="544759183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>電圧</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mV}</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="378955983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="378955983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>電流密度 </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[mA cm-2 ]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="7.9758575577071524E-3"/>
-              <c:y val="0.36905087819002558"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="544759183"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2179,6 +2137,715 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>エオシンY</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'光電流（エオシン'!$C$8:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'光電流（エオシン'!$L$8:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.4237610893544683E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8501363782808629E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8354994771032158E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.3758412744232307E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0028025852464781E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7334747086866734E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7831535993846707E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55071667203202723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7130415234933218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1253858501049523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.157078799680936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.164924517459287</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3910658686567592</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.304636784347792</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5335396781145283</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1106526171116642</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89953890824811744</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74848630900382584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B7D0-1C4D-9525-46A7538C0BA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>メチレンブルー</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'光電流（メチレンブルー）'!$D$8:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'光電流（メチレンブルー）'!$M$8:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12847522178708948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14550409134842601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19177497385516099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29069699422993239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42765142939618195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50035032315580985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52004241260600148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54482075195692703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48011197048945975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4216717596291254</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38585010495122862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33909706220962327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31387836943171438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27081428812189395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.19989196598934936</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15864203566702012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3741255666693424E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.24949543633460861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B7D0-1C4D-9525-46A7538C0BA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>色素なし</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'光電流（メチレンブルー）'!$D$8:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'光電流（色素なし）'!$L$8:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8501363782808664E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8354994771032193E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.2299666025548034E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0014012926232391E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7334747086866713E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6354484976820337E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1446680660163814E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11303235406987445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16901142969400007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21194161679104745</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27044207163264916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31728407133404024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37618878966685404</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41764306454376876</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16633029088973905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B7D0-1C4D-9525-46A7538C0BA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421332351"/>
+        <c:axId val="1329183087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421332351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP"/>
+                  <a:t>波長</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>[nm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329183087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1329183087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IPCE[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421332351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14224662927270962"/>
+          <c:y val="5.0715940633669722E-2"/>
+          <c:w val="0.80790281738089786"/>
+          <c:h val="0.80760216339608748"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
@@ -2609,7 +3276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6410,14 +7077,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312011</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>629921</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>62227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>339836</xdr:colOff>
+      <xdr:colOff>339837</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>65652</xdr:rowOff>
     </xdr:to>
@@ -6454,7 +7121,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>493230</xdr:colOff>
+      <xdr:colOff>287866</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>215115</xdr:rowOff>
     </xdr:from>
@@ -6497,7 +7164,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>385280</xdr:colOff>
+      <xdr:colOff>42333</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>208765</xdr:rowOff>
     </xdr:from>
@@ -6570,6 +7237,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>650489</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4498CC12-27D0-9E4A-8C85-C8B1E29B90C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6963,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667CDA81-7A39-4F47-8B18-4B2058884AAD}">
   <dimension ref="B2:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="D7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7284,8 +7989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA16AE3-C468-42F5-84FD-F357016E6DC6}">
   <dimension ref="C2:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7647,8 +8352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E225DA-7144-4C3C-9E77-17D62025F806}">
   <dimension ref="C3:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7905,8 +8610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE91E06-0AC9-405D-8C96-D1769DD6E991}">
   <dimension ref="C2:O28"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="J20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -9723,8 +10428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3383D70-D613-4EA0-BB0A-C5663C9912EA}">
   <dimension ref="C2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -10629,6 +11334,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C6194979B929F24F9ED8EDFBA8C2B3C0" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4921e6eb36121f24b9f142e2a9bbc775">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e96777e-c527-4c3b-bd25-1feec2cdf3c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6404084e4861f27c71d607caa95136a7" ns3:_="">
     <xsd:import namespace="1e96777e-c527-4c3b-bd25-1feec2cdf3c7"/>
@@ -10804,15 +11518,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10820,6 +11525,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93255A41-AE11-4C80-AABA-D71914568C4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1307F8F8-B426-49B7-9B2B-D2F21C8C867C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10833,14 +11546,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93255A41-AE11-4C80-AABA-D71914568C4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
